--- a/IBK/excel/invoice_result_0702_Current.xlsx
+++ b/IBK/excel/invoice_result_0702_Current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="225">
   <si>
     <t>file name</t>
   </si>
@@ -73,16 +73,7 @@
     <t>040952191000114_304018_20190228_201902281552430k.jpg</t>
   </si>
   <si>
-    <t>DUTCH-BANGLA BANK LIMITED,CENTRALIZED TRADE SERVICE DIVISION. DHAKA-1208. BANGLADESH,</t>
-  </si>
-  <si>
-    <t>NICE FABRICS PROCESSING LTD.,ADAMJEE COURT. 4TH FLOOR. 115-120.,MOTIJHEEL C/A. DHAKA-1000. FAC: MAWNA. SREEPUR. GAZIPUR.,BANGLADESH,</t>
-  </si>
-  <si>
     <t>165416278442,CHATTOGRAM SEA PORT. BANGLADESH •COVER NOTE NO. PLONEER/HO/MC-04/08/2018 (OPEN) DATED 12.08.2018,•THIS L/C IS OPENED UNDER BONDED WAREHOUSE LICENSE.,••IMPORT UNDER BOND NOT FOR RESALE,</t>
-  </si>
-  <si>
-    <t>KMTC MANILA V#025S,</t>
   </si>
   <si>
     <t>040952191000121_304018_20190220_201902201338051m.jpg</t>
@@ -680,6 +671,46 @@
   </si>
   <si>
     <t>EVER BALMY 1700-017S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO THE ORDER OF DUTCH-BANGLA BANK LIMITED,CENTRALIZED TRADE SERVICE DIVISION. DHAKA-1208. BANGLADESH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICE FABRICS PROCESSING LTD.ADAMJEE COURT. 4TH FLOOR. 115-120.MOTIJHEEL C/A. DHAKA-1000. FAC: MAWNA. SREEPUR. GAZIPUR.BANGLADESH DUTCH-BANGLA BANK LTD (CENTRALIZED TRADE SERVICES) DHAKA 315/B TEJGAON I/A DHAKA BANGLADESH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCHEON SOUTH KOREAN PORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMTC MANILA V#025S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHUNG JUNG OIL CHEMICAL CO., LTD. 116-18, BYOLMANG-RO, 459 BEON-GIL, DANWON-GU, ANSAN-SI, KYEONGGI-DO, KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHUNG JUNG OIL CHEMICAL CO. LTD. 116-18, BYOLMANG-RO, 458 BEON-GIL, DANWON-GU, ANSAN-SI, KYEONGGI-DO, KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHUNG JUNG OIL CHEMICAL CO. LTD. 116-18, BYOLMANG-RO, 459 BEON-GIL, DANWON-GU, ANSAN-SI, KYEONGGI-DO, KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD10,800.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD14,279.55</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +718,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00_);\(&quot;US$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +741,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -736,9 +777,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1038,32 +1081,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="143" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="197.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="233.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="124.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="255.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="27.625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,142 +1147,163 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>206</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" t="s">
         <v>207</v>
       </c>
-      <c r="F2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M3" t="s">
         <v>214</v>
       </c>
-      <c r="G3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
+      <c r="B4" t="s">
+        <v>220</v>
       </c>
       <c r="E4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="3">
+        <v>862.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1248,27 +1312,27 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1277,17 +1341,17 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
@@ -1295,9 +1359,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1306,17 +1370,17 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
@@ -1324,9 +1388,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1335,27 +1399,27 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1364,17 +1428,17 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
@@ -1382,9 +1446,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1393,17 +1457,17 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
@@ -1411,108 +1475,108 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="K13" t="s">
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="L14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
@@ -1526,28 +1590,28 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -1558,19 +1622,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1587,25 +1651,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
@@ -1619,51 +1683,51 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="K20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
         <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -1680,51 +1744,51 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
@@ -1738,22 +1802,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
@@ -1767,48 +1831,48 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="s">
         <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -1825,19 +1889,19 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
         <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1854,83 +1918,83 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
         <v>111</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
         <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
         <v>116</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
         <v>118</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
         <v>122</v>
       </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
@@ -1944,25 +2008,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
         <v>126</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
-      </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
@@ -1973,19 +2037,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
         <v>130</v>
-      </c>
-      <c r="C32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" t="s">
-        <v>133</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
@@ -1997,27 +2061,27 @@
         <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" t="s">
         <v>135</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
         <v>136</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" t="s">
-        <v>139</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
@@ -2031,19 +2095,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
@@ -2057,22 +2121,22 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K35" t="s">
         <v>14</v>
@@ -2086,22 +2150,22 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
         <v>146</v>
       </c>
-      <c r="C36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" t="s">
-        <v>149</v>
-      </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
@@ -2115,22 +2179,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
@@ -2144,22 +2208,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
         <v>153</v>
       </c>
-      <c r="C38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" t="s">
-        <v>156</v>
-      </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -2173,25 +2237,25 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
         <v>157</v>
       </c>
-      <c r="B39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" t="s">
-        <v>160</v>
-      </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
@@ -2205,22 +2269,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K40" t="s">
         <v>14</v>
@@ -2234,19 +2298,19 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K41" t="s">
         <v>14</v>
@@ -2260,48 +2324,48 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
         <v>165</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" t="s">
         <v>166</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
         <v>170</v>
-      </c>
-      <c r="C43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" t="s">
-        <v>173</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2318,25 +2382,25 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
         <v>174</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" t="s">
-        <v>176</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" t="s">
-        <v>177</v>
       </c>
       <c r="L44" t="s">
         <v>14</v>
@@ -2347,25 +2411,25 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
         <v>178</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
         <v>179</v>
       </c>
-      <c r="C45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" t="s">
-        <v>182</v>
-      </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K45" t="s">
         <v>14</v>
@@ -2379,22 +2443,22 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
         <v>183</v>
       </c>
-      <c r="C46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" t="s">
-        <v>186</v>
-      </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K46" t="s">
         <v>14</v>
@@ -2408,147 +2472,147 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" t="s">
         <v>187</v>
-      </c>
-      <c r="B47" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" t="s">
-        <v>190</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s">
         <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s">
         <v>14</v>
       </c>
       <c r="M48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s">
         <v>14</v>
       </c>
       <c r="M49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s">
         <v>14</v>
       </c>
       <c r="M50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
